--- a/document/linkpower_table_list_20190513.xlsx
+++ b/document/linkpower_table_list_20190513.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Documents/HBuilderProjects/LBAI/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD57BDCA-28F4-3547-AEA5-9721AEA358C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23463151-FB57-4F46-A4EA-9F5F8D794BA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="版本控制说明" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="288">
   <si>
     <t>灵豹智能数据表</t>
   </si>
@@ -983,6 +983,34 @@
   </si>
   <si>
     <t>LP_ACT_SUGGEST</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售员ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISUSED</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未使用；1:使用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后交互时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_TOUCH_DATE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_TOUCH_TYPE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:电话；1:微信；2:语音；3:微博；4:其他</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1647,7 +1675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1814,6 +1842,21 @@
     <xf numFmtId="49" fontId="8" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1966,15 +2009,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3247,16 +3281,16 @@
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="93"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
       <c r="J5" s="5"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -3265,20 +3299,20 @@
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="97" t="s">
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="98"/>
+      <c r="I6" s="103"/>
       <c r="J6" s="5"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -3287,14 +3321,14 @@
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="86"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
       <c r="J7" s="5"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -3303,14 +3337,14 @@
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="86"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
       <c r="J8" s="5"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3319,14 +3353,14 @@
     </row>
     <row r="9" spans="1:14" ht="40.5" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="5"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -3367,104 +3401,104 @@
     </row>
     <row r="12" spans="1:14" ht="14.25" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="45.75" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78" t="s">
+      <c r="C13" s="82"/>
+      <c r="D13" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78" t="s">
+      <c r="E13" s="82"/>
+      <c r="F13" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78" t="s">
+      <c r="G13" s="82"/>
+      <c r="H13" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78" t="s">
+      <c r="I13" s="82"/>
+      <c r="J13" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78" t="s">
+      <c r="K13" s="82"/>
+      <c r="L13" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="77"/>
+      <c r="M13" s="82"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="57.75" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="80" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82" t="s">
+      <c r="E14" s="86"/>
+      <c r="F14" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="72">
+      <c r="G14" s="70"/>
+      <c r="H14" s="77">
         <v>43596</v>
       </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="65"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="27" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="65"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="27" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="68"/>
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="15.5" customHeight="1">
@@ -3648,30 +3682,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -4080,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:IV14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1"/>
@@ -4095,30 +4129,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -4442,30 +4476,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>278</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -4956,30 +4990,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -5226,10 +5260,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:IV17"/>
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5243,30 +5277,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -5322,7 +5356,7 @@
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1">
       <c r="A5" s="29">
-        <f t="shared" ref="A5:A6" si="0">A4+1</f>
+        <f t="shared" ref="A5:A15" si="0">A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -5337,7 +5371,7 @@
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
       <c r="G5" s="32" t="s">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="H5" s="50" t="str">
         <f t="shared" ref="H5" si="1">IF(C5="DATE",CONCATENATE(C5),CONCATENATE(C5,"(",D5,")"))</f>
@@ -5345,7 +5379,7 @@
       </c>
       <c r="J5" s="50" t="str">
         <f t="shared" ref="J5" si="2">CONCATENATE("`",B5,"` ",LOWER(H5),IF(F5="Y"," NOT NULL","")," COMMENT ","'",G5,"',")</f>
-        <v>`SALES_ID` varchar(32) COMMENT '客户ID',</v>
+        <v>`SALES_ID` varchar(32) COMMENT '销售员ID',</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16" customHeight="1">
@@ -5368,17 +5402,17 @@
         <v>160</v>
       </c>
       <c r="H6" s="50" t="str">
-        <f t="shared" ref="H6:H14" si="3">IF(C6="DATE",CONCATENATE(C6),CONCATENATE(C6,"(",D6,")"))</f>
+        <f t="shared" ref="H6:H15" si="3">IF(C6="DATE",CONCATENATE(C6),CONCATENATE(C6,"(",D6,")"))</f>
         <v>VARCHAR(32)</v>
       </c>
       <c r="J6" s="50" t="str">
-        <f t="shared" ref="J6:J14" si="4">CONCATENATE("`",B6,"` ",LOWER(H6),IF(F6="Y"," NOT NULL","")," COMMENT ","'",G6,"',")</f>
+        <f t="shared" ref="J6:J15" si="4">CONCATENATE("`",B6,"` ",LOWER(H6),IF(F6="Y"," NOT NULL","")," COMMENT ","'",G6,"',")</f>
         <v>`CUST_ID` varchar(32) COMMENT '客户ID',</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16" customHeight="1">
       <c r="A7" s="29">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
@@ -5406,7 +5440,7 @@
     </row>
     <row r="8" spans="1:10" ht="29" customHeight="1">
       <c r="A8" s="29">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -5434,7 +5468,7 @@
     </row>
     <row r="9" spans="1:10" ht="29" customHeight="1">
       <c r="A9" s="29">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
@@ -5462,7 +5496,7 @@
     </row>
     <row r="10" spans="1:10" ht="29" customHeight="1">
       <c r="A10" s="29">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -5489,7 +5523,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="29" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="B11" s="30" t="s">
         <v>225</v>
       </c>
@@ -5515,8 +5552,8 @@
     </row>
     <row r="12" spans="1:10" ht="16" customHeight="1">
       <c r="A12" s="29">
-        <f>A9+1</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>140</v>
@@ -5543,8 +5580,8 @@
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1">
       <c r="A13" s="29">
-        <f>A12+1</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>142</v>
@@ -5571,11 +5608,11 @@
     </row>
     <row r="14" spans="1:10" ht="16" customHeight="1">
       <c r="A14" s="29">
-        <f>A12+1</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>265</v>
@@ -5583,48 +5620,76 @@
       <c r="D14" s="31">
         <v>1</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="H14" s="50" t="str">
+        <f t="shared" ref="H14" si="5">IF(C14="DATE",CONCATENATE(C14),CONCATENATE(C14,"(",D14,")"))</f>
+        <v>VARCHAR(1)</v>
+      </c>
+      <c r="J14" s="50" t="str">
+        <f t="shared" ref="J14" si="6">CONCATENATE("`",B14,"` ",LOWER(H14),IF(F14="Y"," NOT NULL","")," COMMENT ","'",G14,"',")</f>
+        <v>`ISUSED` varchar(1) COMMENT '0:未使用；1:使用',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16" customHeight="1">
+      <c r="A15" s="29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="31">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="50" t="str">
+      <c r="H15" s="50" t="str">
         <f t="shared" si="3"/>
         <v>VARCHAR(1)</v>
       </c>
-      <c r="J14" s="50" t="str">
+      <c r="J15" s="50" t="str">
         <f t="shared" si="4"/>
         <v>`STATUS` varchar(1) COMMENT '0:无效；1:有效',</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38" t="s">
+    <row r="16" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5677,7 +5742,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="105" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="16">
@@ -5694,7 +5759,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="28" customHeight="1">
-      <c r="A3" s="101"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="16">
         <f t="shared" ref="B3:B13" si="0">B2+1</f>
         <v>2</v>
@@ -5710,7 +5775,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28" customHeight="1">
-      <c r="A4" s="102"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5726,7 +5791,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="28" customHeight="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="105" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="16">
@@ -5744,7 +5809,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="28" customHeight="1">
-      <c r="A6" s="101"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5760,7 +5825,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="28" customHeight="1">
-      <c r="A7" s="101"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5776,7 +5841,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="28" customHeight="1">
-      <c r="A8" s="101"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5792,7 +5857,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="28" customHeight="1">
-      <c r="A9" s="102"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5808,7 +5873,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="28" customHeight="1">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="105" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="16">
@@ -5826,7 +5891,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="28" customHeight="1">
-      <c r="A11" s="102"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5842,7 +5907,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="28" customHeight="1">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="105" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="16">
@@ -5860,7 +5925,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="28" customHeight="1">
-      <c r="A13" s="102"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5903,7 +5968,7 @@
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5917,30 +5982,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="16.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:256" ht="16" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:256" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -6352,10 +6417,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:IV44"/>
+  <dimension ref="A1:IV46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1"/>
@@ -6371,30 +6436,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="115" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -6437,14 +6502,14 @@
         <v>71</v>
       </c>
       <c r="G4" s="25"/>
-      <c r="I4" s="115"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="39" t="str">
         <f>CONCATENATE("`",B4,"` ",LOWER(C4),"(",D4,")"," COMMENT ","'",G4,"',")</f>
         <v>`ID` varchar(32) COMMENT '',</v>
       </c>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="113"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="63"/>
     </row>
     <row r="5" spans="1:13" ht="14">
       <c r="A5" s="29">
@@ -6466,7 +6531,7 @@
         <v>264</v>
       </c>
       <c r="J5" s="50" t="str">
-        <f t="shared" ref="J5:J41" si="0">CONCATENATE("`",B5,"` ",LOWER(C5),"(",D5,")"," COMMENT ","'",G5,"',")</f>
+        <f t="shared" ref="J5:J43" si="0">CONCATENATE("`",B5,"` ",LOWER(C5),"(",D5,")"," COMMENT ","'",G5,"',")</f>
         <v>`SRC` varchar(2) COMMENT '0:通讯录；1:微信；2:手工添加',</v>
       </c>
     </row>
@@ -7096,7 +7161,7 @@
         <v>`WECHAT_CITY` varchar(20) COMMENT '微信地区（城市）',</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14">
+    <row r="33" spans="1:256" ht="14">
       <c r="A33" s="29">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7120,7 +7185,7 @@
         <v>`WECHAT_SIGNATURE` varchar(100) COMMENT '微信签名',</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14">
+    <row r="34" spans="1:256" ht="14">
       <c r="A34" s="29">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7144,7 +7209,7 @@
         <v>`WECHAT_PHONE` varchar(20) COMMENT '微信中记录的手机号',</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14">
+    <row r="35" spans="1:256" ht="14">
       <c r="A35" s="29">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7168,7 +7233,7 @@
         <v>`WECHAT_LINKEDIN` varchar(100) COMMENT '微信中记录的LINKEDIN链接',</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14">
+    <row r="36" spans="1:256" ht="14">
       <c r="A36" s="29">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7192,7 +7257,7 @@
         <v>`WECHAT_GROUP` varchar(100) COMMENT '微信中对客户的标签设定（家庭、好友等）',</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14">
+    <row r="37" spans="1:256" ht="14">
       <c r="A37" s="29">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7216,7 +7281,7 @@
         <v>`WECHAT_SAMEGROUP` varchar(100) COMMENT '与客户的共同微信群聊名称',</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14">
+    <row r="38" spans="1:256" ht="14">
       <c r="A38" s="29">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -7240,102 +7305,642 @@
         <v>`WEIBO_ID` varchar(100) COMMENT '微博ID（通过手机号搜索）',</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14">
+    <row r="39" spans="1:256" ht="14">
       <c r="A39" s="29">
+        <f>A36+1</f>
+        <v>21</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50" t="str">
+        <f t="shared" ref="J39:J40" si="2">CONCATENATE("`",B39,"` ",LOWER(C39),"(",D39,")"," COMMENT ","'",G39,"',")</f>
+        <v>`LAST_TOUCH_DATE` date() COMMENT '最后交互时间',</v>
+      </c>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
+      <c r="AH39" s="50"/>
+      <c r="AI39" s="50"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
+      <c r="AP39" s="50"/>
+      <c r="AQ39" s="50"/>
+      <c r="AR39" s="50"/>
+      <c r="AS39" s="50"/>
+      <c r="AT39" s="50"/>
+      <c r="AU39" s="50"/>
+      <c r="AV39" s="50"/>
+      <c r="AW39" s="50"/>
+      <c r="AX39" s="50"/>
+      <c r="AY39" s="50"/>
+      <c r="AZ39" s="50"/>
+      <c r="BA39" s="50"/>
+      <c r="BB39" s="50"/>
+      <c r="BC39" s="50"/>
+      <c r="BD39" s="50"/>
+      <c r="BE39" s="50"/>
+      <c r="BF39" s="50"/>
+      <c r="BG39" s="50"/>
+      <c r="BH39" s="50"/>
+      <c r="BI39" s="50"/>
+      <c r="BJ39" s="50"/>
+      <c r="BK39" s="50"/>
+      <c r="BL39" s="50"/>
+      <c r="BM39" s="50"/>
+      <c r="BN39" s="50"/>
+      <c r="BO39" s="50"/>
+      <c r="BP39" s="50"/>
+      <c r="BQ39" s="50"/>
+      <c r="BR39" s="50"/>
+      <c r="BS39" s="50"/>
+      <c r="BT39" s="50"/>
+      <c r="BU39" s="50"/>
+      <c r="BV39" s="50"/>
+      <c r="BW39" s="50"/>
+      <c r="BX39" s="50"/>
+      <c r="BY39" s="50"/>
+      <c r="BZ39" s="50"/>
+      <c r="CA39" s="50"/>
+      <c r="CB39" s="50"/>
+      <c r="CC39" s="50"/>
+      <c r="CD39" s="50"/>
+      <c r="CE39" s="50"/>
+      <c r="CF39" s="50"/>
+      <c r="CG39" s="50"/>
+      <c r="CH39" s="50"/>
+      <c r="CI39" s="50"/>
+      <c r="CJ39" s="50"/>
+      <c r="CK39" s="50"/>
+      <c r="CL39" s="50"/>
+      <c r="CM39" s="50"/>
+      <c r="CN39" s="50"/>
+      <c r="CO39" s="50"/>
+      <c r="CP39" s="50"/>
+      <c r="CQ39" s="50"/>
+      <c r="CR39" s="50"/>
+      <c r="CS39" s="50"/>
+      <c r="CT39" s="50"/>
+      <c r="CU39" s="50"/>
+      <c r="CV39" s="50"/>
+      <c r="CW39" s="50"/>
+      <c r="CX39" s="50"/>
+      <c r="CY39" s="50"/>
+      <c r="CZ39" s="50"/>
+      <c r="DA39" s="50"/>
+      <c r="DB39" s="50"/>
+      <c r="DC39" s="50"/>
+      <c r="DD39" s="50"/>
+      <c r="DE39" s="50"/>
+      <c r="DF39" s="50"/>
+      <c r="DG39" s="50"/>
+      <c r="DH39" s="50"/>
+      <c r="DI39" s="50"/>
+      <c r="DJ39" s="50"/>
+      <c r="DK39" s="50"/>
+      <c r="DL39" s="50"/>
+      <c r="DM39" s="50"/>
+      <c r="DN39" s="50"/>
+      <c r="DO39" s="50"/>
+      <c r="DP39" s="50"/>
+      <c r="DQ39" s="50"/>
+      <c r="DR39" s="50"/>
+      <c r="DS39" s="50"/>
+      <c r="DT39" s="50"/>
+      <c r="DU39" s="50"/>
+      <c r="DV39" s="50"/>
+      <c r="DW39" s="50"/>
+      <c r="DX39" s="50"/>
+      <c r="DY39" s="50"/>
+      <c r="DZ39" s="50"/>
+      <c r="EA39" s="50"/>
+      <c r="EB39" s="50"/>
+      <c r="EC39" s="50"/>
+      <c r="ED39" s="50"/>
+      <c r="EE39" s="50"/>
+      <c r="EF39" s="50"/>
+      <c r="EG39" s="50"/>
+      <c r="EH39" s="50"/>
+      <c r="EI39" s="50"/>
+      <c r="EJ39" s="50"/>
+      <c r="EK39" s="50"/>
+      <c r="EL39" s="50"/>
+      <c r="EM39" s="50"/>
+      <c r="EN39" s="50"/>
+      <c r="EO39" s="50"/>
+      <c r="EP39" s="50"/>
+      <c r="EQ39" s="50"/>
+      <c r="ER39" s="50"/>
+      <c r="ES39" s="50"/>
+      <c r="ET39" s="50"/>
+      <c r="EU39" s="50"/>
+      <c r="EV39" s="50"/>
+      <c r="EW39" s="50"/>
+      <c r="EX39" s="50"/>
+      <c r="EY39" s="50"/>
+      <c r="EZ39" s="50"/>
+      <c r="FA39" s="50"/>
+      <c r="FB39" s="50"/>
+      <c r="FC39" s="50"/>
+      <c r="FD39" s="50"/>
+      <c r="FE39" s="50"/>
+      <c r="FF39" s="50"/>
+      <c r="FG39" s="50"/>
+      <c r="FH39" s="50"/>
+      <c r="FI39" s="50"/>
+      <c r="FJ39" s="50"/>
+      <c r="FK39" s="50"/>
+      <c r="FL39" s="50"/>
+      <c r="FM39" s="50"/>
+      <c r="FN39" s="50"/>
+      <c r="FO39" s="50"/>
+      <c r="FP39" s="50"/>
+      <c r="FQ39" s="50"/>
+      <c r="FR39" s="50"/>
+      <c r="FS39" s="50"/>
+      <c r="FT39" s="50"/>
+      <c r="FU39" s="50"/>
+      <c r="FV39" s="50"/>
+      <c r="FW39" s="50"/>
+      <c r="FX39" s="50"/>
+      <c r="FY39" s="50"/>
+      <c r="FZ39" s="50"/>
+      <c r="GA39" s="50"/>
+      <c r="GB39" s="50"/>
+      <c r="GC39" s="50"/>
+      <c r="GD39" s="50"/>
+      <c r="GE39" s="50"/>
+      <c r="GF39" s="50"/>
+      <c r="GG39" s="50"/>
+      <c r="GH39" s="50"/>
+      <c r="GI39" s="50"/>
+      <c r="GJ39" s="50"/>
+      <c r="GK39" s="50"/>
+      <c r="GL39" s="50"/>
+      <c r="GM39" s="50"/>
+      <c r="GN39" s="50"/>
+      <c r="GO39" s="50"/>
+      <c r="GP39" s="50"/>
+      <c r="GQ39" s="50"/>
+      <c r="GR39" s="50"/>
+      <c r="GS39" s="50"/>
+      <c r="GT39" s="50"/>
+      <c r="GU39" s="50"/>
+      <c r="GV39" s="50"/>
+      <c r="GW39" s="50"/>
+      <c r="GX39" s="50"/>
+      <c r="GY39" s="50"/>
+      <c r="GZ39" s="50"/>
+      <c r="HA39" s="50"/>
+      <c r="HB39" s="50"/>
+      <c r="HC39" s="50"/>
+      <c r="HD39" s="50"/>
+      <c r="HE39" s="50"/>
+      <c r="HF39" s="50"/>
+      <c r="HG39" s="50"/>
+      <c r="HH39" s="50"/>
+      <c r="HI39" s="50"/>
+      <c r="HJ39" s="50"/>
+      <c r="HK39" s="50"/>
+      <c r="HL39" s="50"/>
+      <c r="HM39" s="50"/>
+      <c r="HN39" s="50"/>
+      <c r="HO39" s="50"/>
+      <c r="HP39" s="50"/>
+      <c r="HQ39" s="50"/>
+      <c r="HR39" s="50"/>
+      <c r="HS39" s="50"/>
+      <c r="HT39" s="50"/>
+      <c r="HU39" s="50"/>
+      <c r="HV39" s="50"/>
+      <c r="HW39" s="50"/>
+      <c r="HX39" s="50"/>
+      <c r="HY39" s="50"/>
+      <c r="HZ39" s="50"/>
+      <c r="IA39" s="50"/>
+      <c r="IB39" s="50"/>
+      <c r="IC39" s="50"/>
+      <c r="ID39" s="50"/>
+      <c r="IE39" s="50"/>
+      <c r="IF39" s="50"/>
+      <c r="IG39" s="50"/>
+      <c r="IH39" s="50"/>
+      <c r="II39" s="50"/>
+      <c r="IJ39" s="50"/>
+      <c r="IK39" s="50"/>
+      <c r="IL39" s="50"/>
+      <c r="IM39" s="50"/>
+      <c r="IN39" s="50"/>
+      <c r="IO39" s="50"/>
+      <c r="IP39" s="50"/>
+      <c r="IQ39" s="50"/>
+      <c r="IR39" s="50"/>
+      <c r="IS39" s="50"/>
+      <c r="IT39" s="50"/>
+      <c r="IU39" s="50"/>
+      <c r="IV39" s="50"/>
+    </row>
+    <row r="40" spans="1:256" ht="14">
+      <c r="A40" s="29">
+        <f>A36+1</f>
+        <v>21</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="31">
+        <v>2</v>
+      </c>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>`LAST_TOUCH_TYPE` varchar(2) COMMENT '0:电话；1:微信；2:语音；3:微博；4:其他',</v>
+      </c>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
+      <c r="AH40" s="50"/>
+      <c r="AI40" s="50"/>
+      <c r="AJ40" s="50"/>
+      <c r="AK40" s="50"/>
+      <c r="AL40" s="50"/>
+      <c r="AM40" s="50"/>
+      <c r="AN40" s="50"/>
+      <c r="AO40" s="50"/>
+      <c r="AP40" s="50"/>
+      <c r="AQ40" s="50"/>
+      <c r="AR40" s="50"/>
+      <c r="AS40" s="50"/>
+      <c r="AT40" s="50"/>
+      <c r="AU40" s="50"/>
+      <c r="AV40" s="50"/>
+      <c r="AW40" s="50"/>
+      <c r="AX40" s="50"/>
+      <c r="AY40" s="50"/>
+      <c r="AZ40" s="50"/>
+      <c r="BA40" s="50"/>
+      <c r="BB40" s="50"/>
+      <c r="BC40" s="50"/>
+      <c r="BD40" s="50"/>
+      <c r="BE40" s="50"/>
+      <c r="BF40" s="50"/>
+      <c r="BG40" s="50"/>
+      <c r="BH40" s="50"/>
+      <c r="BI40" s="50"/>
+      <c r="BJ40" s="50"/>
+      <c r="BK40" s="50"/>
+      <c r="BL40" s="50"/>
+      <c r="BM40" s="50"/>
+      <c r="BN40" s="50"/>
+      <c r="BO40" s="50"/>
+      <c r="BP40" s="50"/>
+      <c r="BQ40" s="50"/>
+      <c r="BR40" s="50"/>
+      <c r="BS40" s="50"/>
+      <c r="BT40" s="50"/>
+      <c r="BU40" s="50"/>
+      <c r="BV40" s="50"/>
+      <c r="BW40" s="50"/>
+      <c r="BX40" s="50"/>
+      <c r="BY40" s="50"/>
+      <c r="BZ40" s="50"/>
+      <c r="CA40" s="50"/>
+      <c r="CB40" s="50"/>
+      <c r="CC40" s="50"/>
+      <c r="CD40" s="50"/>
+      <c r="CE40" s="50"/>
+      <c r="CF40" s="50"/>
+      <c r="CG40" s="50"/>
+      <c r="CH40" s="50"/>
+      <c r="CI40" s="50"/>
+      <c r="CJ40" s="50"/>
+      <c r="CK40" s="50"/>
+      <c r="CL40" s="50"/>
+      <c r="CM40" s="50"/>
+      <c r="CN40" s="50"/>
+      <c r="CO40" s="50"/>
+      <c r="CP40" s="50"/>
+      <c r="CQ40" s="50"/>
+      <c r="CR40" s="50"/>
+      <c r="CS40" s="50"/>
+      <c r="CT40" s="50"/>
+      <c r="CU40" s="50"/>
+      <c r="CV40" s="50"/>
+      <c r="CW40" s="50"/>
+      <c r="CX40" s="50"/>
+      <c r="CY40" s="50"/>
+      <c r="CZ40" s="50"/>
+      <c r="DA40" s="50"/>
+      <c r="DB40" s="50"/>
+      <c r="DC40" s="50"/>
+      <c r="DD40" s="50"/>
+      <c r="DE40" s="50"/>
+      <c r="DF40" s="50"/>
+      <c r="DG40" s="50"/>
+      <c r="DH40" s="50"/>
+      <c r="DI40" s="50"/>
+      <c r="DJ40" s="50"/>
+      <c r="DK40" s="50"/>
+      <c r="DL40" s="50"/>
+      <c r="DM40" s="50"/>
+      <c r="DN40" s="50"/>
+      <c r="DO40" s="50"/>
+      <c r="DP40" s="50"/>
+      <c r="DQ40" s="50"/>
+      <c r="DR40" s="50"/>
+      <c r="DS40" s="50"/>
+      <c r="DT40" s="50"/>
+      <c r="DU40" s="50"/>
+      <c r="DV40" s="50"/>
+      <c r="DW40" s="50"/>
+      <c r="DX40" s="50"/>
+      <c r="DY40" s="50"/>
+      <c r="DZ40" s="50"/>
+      <c r="EA40" s="50"/>
+      <c r="EB40" s="50"/>
+      <c r="EC40" s="50"/>
+      <c r="ED40" s="50"/>
+      <c r="EE40" s="50"/>
+      <c r="EF40" s="50"/>
+      <c r="EG40" s="50"/>
+      <c r="EH40" s="50"/>
+      <c r="EI40" s="50"/>
+      <c r="EJ40" s="50"/>
+      <c r="EK40" s="50"/>
+      <c r="EL40" s="50"/>
+      <c r="EM40" s="50"/>
+      <c r="EN40" s="50"/>
+      <c r="EO40" s="50"/>
+      <c r="EP40" s="50"/>
+      <c r="EQ40" s="50"/>
+      <c r="ER40" s="50"/>
+      <c r="ES40" s="50"/>
+      <c r="ET40" s="50"/>
+      <c r="EU40" s="50"/>
+      <c r="EV40" s="50"/>
+      <c r="EW40" s="50"/>
+      <c r="EX40" s="50"/>
+      <c r="EY40" s="50"/>
+      <c r="EZ40" s="50"/>
+      <c r="FA40" s="50"/>
+      <c r="FB40" s="50"/>
+      <c r="FC40" s="50"/>
+      <c r="FD40" s="50"/>
+      <c r="FE40" s="50"/>
+      <c r="FF40" s="50"/>
+      <c r="FG40" s="50"/>
+      <c r="FH40" s="50"/>
+      <c r="FI40" s="50"/>
+      <c r="FJ40" s="50"/>
+      <c r="FK40" s="50"/>
+      <c r="FL40" s="50"/>
+      <c r="FM40" s="50"/>
+      <c r="FN40" s="50"/>
+      <c r="FO40" s="50"/>
+      <c r="FP40" s="50"/>
+      <c r="FQ40" s="50"/>
+      <c r="FR40" s="50"/>
+      <c r="FS40" s="50"/>
+      <c r="FT40" s="50"/>
+      <c r="FU40" s="50"/>
+      <c r="FV40" s="50"/>
+      <c r="FW40" s="50"/>
+      <c r="FX40" s="50"/>
+      <c r="FY40" s="50"/>
+      <c r="FZ40" s="50"/>
+      <c r="GA40" s="50"/>
+      <c r="GB40" s="50"/>
+      <c r="GC40" s="50"/>
+      <c r="GD40" s="50"/>
+      <c r="GE40" s="50"/>
+      <c r="GF40" s="50"/>
+      <c r="GG40" s="50"/>
+      <c r="GH40" s="50"/>
+      <c r="GI40" s="50"/>
+      <c r="GJ40" s="50"/>
+      <c r="GK40" s="50"/>
+      <c r="GL40" s="50"/>
+      <c r="GM40" s="50"/>
+      <c r="GN40" s="50"/>
+      <c r="GO40" s="50"/>
+      <c r="GP40" s="50"/>
+      <c r="GQ40" s="50"/>
+      <c r="GR40" s="50"/>
+      <c r="GS40" s="50"/>
+      <c r="GT40" s="50"/>
+      <c r="GU40" s="50"/>
+      <c r="GV40" s="50"/>
+      <c r="GW40" s="50"/>
+      <c r="GX40" s="50"/>
+      <c r="GY40" s="50"/>
+      <c r="GZ40" s="50"/>
+      <c r="HA40" s="50"/>
+      <c r="HB40" s="50"/>
+      <c r="HC40" s="50"/>
+      <c r="HD40" s="50"/>
+      <c r="HE40" s="50"/>
+      <c r="HF40" s="50"/>
+      <c r="HG40" s="50"/>
+      <c r="HH40" s="50"/>
+      <c r="HI40" s="50"/>
+      <c r="HJ40" s="50"/>
+      <c r="HK40" s="50"/>
+      <c r="HL40" s="50"/>
+      <c r="HM40" s="50"/>
+      <c r="HN40" s="50"/>
+      <c r="HO40" s="50"/>
+      <c r="HP40" s="50"/>
+      <c r="HQ40" s="50"/>
+      <c r="HR40" s="50"/>
+      <c r="HS40" s="50"/>
+      <c r="HT40" s="50"/>
+      <c r="HU40" s="50"/>
+      <c r="HV40" s="50"/>
+      <c r="HW40" s="50"/>
+      <c r="HX40" s="50"/>
+      <c r="HY40" s="50"/>
+      <c r="HZ40" s="50"/>
+      <c r="IA40" s="50"/>
+      <c r="IB40" s="50"/>
+      <c r="IC40" s="50"/>
+      <c r="ID40" s="50"/>
+      <c r="IE40" s="50"/>
+      <c r="IF40" s="50"/>
+      <c r="IG40" s="50"/>
+      <c r="IH40" s="50"/>
+      <c r="II40" s="50"/>
+      <c r="IJ40" s="50"/>
+      <c r="IK40" s="50"/>
+      <c r="IL40" s="50"/>
+      <c r="IM40" s="50"/>
+      <c r="IN40" s="50"/>
+      <c r="IO40" s="50"/>
+      <c r="IP40" s="50"/>
+      <c r="IQ40" s="50"/>
+      <c r="IR40" s="50"/>
+      <c r="IS40" s="50"/>
+      <c r="IT40" s="50"/>
+      <c r="IU40" s="50"/>
+      <c r="IV40" s="50"/>
+    </row>
+    <row r="41" spans="1:256" ht="14">
+      <c r="A41" s="29">
         <f>A37+1</f>
         <v>22</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B41" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C41" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="J39" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v>`CREATE_DATE` date() COMMENT '创建日期',</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="14">
-      <c r="A40" s="29">
-        <f>A39+1</f>
-        <v>23</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="J40" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v>`UPDATE_DATE` date() COMMENT '更新日期',</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="14">
-      <c r="A41" s="29">
-        <f>A40+1</f>
-        <v>24</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="D41" s="31">
-        <v>1</v>
-      </c>
+      <c r="D41" s="31"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="J41" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>`CREATE_DATE` date() COMMENT '创建日期',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:256" ht="14">
+      <c r="A42" s="29">
+        <f>A41+1</f>
+        <v>23</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>`UPDATE_DATE` date() COMMENT '更新日期',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:256" ht="14">
+      <c r="A43" s="29">
+        <f>A42+1</f>
+        <v>24</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" s="31">
+        <v>1</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="J41" s="50" t="str">
+      <c r="J43" s="50" t="str">
         <f t="shared" si="0"/>
         <v>`STATUS` varchar(1) COMMENT '0:无效；1:有效',</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38" t="s">
+    <row r="44" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="35"/>
+    </row>
+    <row r="45" spans="1:256" ht="16.5" customHeight="1">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="1:256" ht="14.25" customHeight="1">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7358,7 +7963,7 @@
   <dimension ref="A1:IV28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1"/>
@@ -7372,30 +7977,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="16.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:256" ht="16" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:256" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -11431,7 +12036,7 @@
   <dimension ref="A1:IV11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1"/>
@@ -11445,30 +12050,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -11678,30 +12283,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -11928,30 +12533,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -12439,30 +13044,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">

--- a/document/linkpower_table_list_20190513.xlsx
+++ b/document/linkpower_table_list_20190513.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Documents/HBuilderProjects/LBAI/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23463151-FB57-4F46-A4EA-9F5F8D794BA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EE6ABE-D9AC-C54C-BE14-347E7FCFB124}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="290">
   <si>
     <t>灵豹智能数据表</t>
   </si>
@@ -1011,6 +1011,14 @@
   </si>
   <si>
     <t>0:电话；1:微信；2:语音；3:微博；4:其他</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CITY</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1675,7 +1683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1857,37 +1865,70 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1920,56 +1961,26 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3281,16 +3292,16 @@
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="5"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -3299,20 +3310,20 @@
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="102" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="103"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="5"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -3321,14 +3332,14 @@
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
       <c r="J7" s="5"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -3337,14 +3348,14 @@
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="5"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3353,14 +3364,14 @@
     </row>
     <row r="9" spans="1:14" ht="40.5" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="95"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="5"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -3401,104 +3412,104 @@
     </row>
     <row r="12" spans="1:14" ht="14.25" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="45.75" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83" t="s">
+      <c r="C13" s="93"/>
+      <c r="D13" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83" t="s">
+      <c r="E13" s="93"/>
+      <c r="F13" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83" t="s">
+      <c r="G13" s="93"/>
+      <c r="H13" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="82"/>
-      <c r="J13" s="83" t="s">
+      <c r="I13" s="93"/>
+      <c r="J13" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83" t="s">
+      <c r="K13" s="93"/>
+      <c r="L13" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="82"/>
+      <c r="M13" s="93"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="57.75" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="85" t="s">
+      <c r="C14" s="88"/>
+      <c r="D14" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87" t="s">
+      <c r="E14" s="97"/>
+      <c r="F14" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="77">
+      <c r="G14" s="88"/>
+      <c r="H14" s="87">
         <v>43596</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="70"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="88"/>
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="27" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="70"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="88"/>
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="27" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="68"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="100"/>
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="15.5" customHeight="1">
@@ -3615,19 +3626,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="B12:M12"/>
     <mergeCell ref="B13:C13"/>
@@ -3641,18 +3651,19 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3682,30 +3693,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -4129,30 +4140,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -4476,30 +4487,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111" t="s">
         <v>278</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -4990,30 +5001,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -5277,30 +5288,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -5742,7 +5753,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28" customHeight="1">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="106" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="16">
@@ -5759,7 +5770,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="28" customHeight="1">
-      <c r="A3" s="106"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="16">
         <f t="shared" ref="B3:B13" si="0">B2+1</f>
         <v>2</v>
@@ -5775,7 +5786,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28" customHeight="1">
-      <c r="A4" s="107"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5791,7 +5802,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="28" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="106" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="16">
@@ -5809,7 +5820,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="28" customHeight="1">
-      <c r="A6" s="106"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5825,7 +5836,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="28" customHeight="1">
-      <c r="A7" s="106"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5841,7 +5852,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="28" customHeight="1">
-      <c r="A8" s="106"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5857,7 +5868,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="28" customHeight="1">
-      <c r="A9" s="107"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5873,7 +5884,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="28" customHeight="1">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="106" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="16">
@@ -5891,7 +5902,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="28" customHeight="1">
-      <c r="A11" s="107"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5907,7 +5918,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="28" customHeight="1">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="106" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="16">
@@ -5925,7 +5936,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="28" customHeight="1">
-      <c r="A13" s="107"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5982,30 +5993,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="16.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:256" ht="16" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:256" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -6417,10 +6428,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:IV46"/>
+  <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1"/>
@@ -6435,33 +6446,33 @@
     <col min="12" max="256" width="8.83203125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:256" ht="16.5" customHeight="1">
+      <c r="A1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-    </row>
-    <row r="2" spans="1:13" ht="16" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+    </row>
+    <row r="2" spans="1:256" ht="16" customHeight="1">
+      <c r="A2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" customHeight="1">
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+    </row>
+    <row r="3" spans="1:256" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>15</v>
       </c>
@@ -6484,7 +6495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14">
+    <row r="4" spans="1:256" ht="14">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -6511,7 +6522,7 @@
       <c r="L4" s="64"/>
       <c r="M4" s="63"/>
     </row>
-    <row r="5" spans="1:13" ht="14">
+    <row r="5" spans="1:256" ht="14">
       <c r="A5" s="29">
         <f>A4+1</f>
         <v>2</v>
@@ -6531,11 +6542,11 @@
         <v>264</v>
       </c>
       <c r="J5" s="50" t="str">
-        <f t="shared" ref="J5:J43" si="0">CONCATENATE("`",B5,"` ",LOWER(C5),"(",D5,")"," COMMENT ","'",G5,"',")</f>
+        <f t="shared" ref="J5:J44" si="0">CONCATENATE("`",B5,"` ",LOWER(C5),"(",D5,")"," COMMENT ","'",G5,"',")</f>
         <v>`SRC` varchar(2) COMMENT '0:通讯录；1:微信；2:手工添加',</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14">
+    <row r="6" spans="1:256" ht="14">
       <c r="A6" s="29">
         <f>A5+1</f>
         <v>3</v>
@@ -6559,7 +6570,7 @@
         <v>`PHASE` varchar(2) COMMENT '当前阶段：0:未接触；1:接触中；2:已成交；3:已复购',</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14">
+    <row r="7" spans="1:256" ht="14">
       <c r="A7" s="29">
         <f>A6+1</f>
         <v>4</v>
@@ -6583,7 +6594,7 @@
         <v>`SEX` varchar(2) COMMENT 'M：男；F：女。来自微信账号、通讯录备注，或外部标签',</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14">
+    <row r="8" spans="1:256" ht="14">
       <c r="A8" s="40"/>
       <c r="B8" s="30" t="s">
         <v>77</v>
@@ -6602,119 +6613,364 @@
         <v>`BIRTH_DATE` date() COMMENT '来自外部数据源',</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14">
+    <row r="9" spans="1:256" ht="14">
       <c r="A9" s="40"/>
       <c r="B9" s="30" t="s">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>265</v>
       </c>
       <c r="D9" s="31">
-        <v>50</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="32" t="s">
-        <v>81</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v>`ADDRESS` varchar(50) COMMENT '详细地址',</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="14">
+        <f t="shared" ref="J9" si="1">CONCATENATE("`",B9,"` ",LOWER(C9),"(",D9,")"," COMMENT ","'",G9,"',")</f>
+        <v>`CITY` varchar(10) COMMENT '城市',</v>
+      </c>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="50"/>
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="50"/>
+      <c r="BD9" s="50"/>
+      <c r="BE9" s="50"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="50"/>
+      <c r="BJ9" s="50"/>
+      <c r="BK9" s="50"/>
+      <c r="BL9" s="50"/>
+      <c r="BM9" s="50"/>
+      <c r="BN9" s="50"/>
+      <c r="BO9" s="50"/>
+      <c r="BP9" s="50"/>
+      <c r="BQ9" s="50"/>
+      <c r="BR9" s="50"/>
+      <c r="BS9" s="50"/>
+      <c r="BT9" s="50"/>
+      <c r="BU9" s="50"/>
+      <c r="BV9" s="50"/>
+      <c r="BW9" s="50"/>
+      <c r="BX9" s="50"/>
+      <c r="BY9" s="50"/>
+      <c r="BZ9" s="50"/>
+      <c r="CA9" s="50"/>
+      <c r="CB9" s="50"/>
+      <c r="CC9" s="50"/>
+      <c r="CD9" s="50"/>
+      <c r="CE9" s="50"/>
+      <c r="CF9" s="50"/>
+      <c r="CG9" s="50"/>
+      <c r="CH9" s="50"/>
+      <c r="CI9" s="50"/>
+      <c r="CJ9" s="50"/>
+      <c r="CK9" s="50"/>
+      <c r="CL9" s="50"/>
+      <c r="CM9" s="50"/>
+      <c r="CN9" s="50"/>
+      <c r="CO9" s="50"/>
+      <c r="CP9" s="50"/>
+      <c r="CQ9" s="50"/>
+      <c r="CR9" s="50"/>
+      <c r="CS9" s="50"/>
+      <c r="CT9" s="50"/>
+      <c r="CU9" s="50"/>
+      <c r="CV9" s="50"/>
+      <c r="CW9" s="50"/>
+      <c r="CX9" s="50"/>
+      <c r="CY9" s="50"/>
+      <c r="CZ9" s="50"/>
+      <c r="DA9" s="50"/>
+      <c r="DB9" s="50"/>
+      <c r="DC9" s="50"/>
+      <c r="DD9" s="50"/>
+      <c r="DE9" s="50"/>
+      <c r="DF9" s="50"/>
+      <c r="DG9" s="50"/>
+      <c r="DH9" s="50"/>
+      <c r="DI9" s="50"/>
+      <c r="DJ9" s="50"/>
+      <c r="DK9" s="50"/>
+      <c r="DL9" s="50"/>
+      <c r="DM9" s="50"/>
+      <c r="DN9" s="50"/>
+      <c r="DO9" s="50"/>
+      <c r="DP9" s="50"/>
+      <c r="DQ9" s="50"/>
+      <c r="DR9" s="50"/>
+      <c r="DS9" s="50"/>
+      <c r="DT9" s="50"/>
+      <c r="DU9" s="50"/>
+      <c r="DV9" s="50"/>
+      <c r="DW9" s="50"/>
+      <c r="DX9" s="50"/>
+      <c r="DY9" s="50"/>
+      <c r="DZ9" s="50"/>
+      <c r="EA9" s="50"/>
+      <c r="EB9" s="50"/>
+      <c r="EC9" s="50"/>
+      <c r="ED9" s="50"/>
+      <c r="EE9" s="50"/>
+      <c r="EF9" s="50"/>
+      <c r="EG9" s="50"/>
+      <c r="EH9" s="50"/>
+      <c r="EI9" s="50"/>
+      <c r="EJ9" s="50"/>
+      <c r="EK9" s="50"/>
+      <c r="EL9" s="50"/>
+      <c r="EM9" s="50"/>
+      <c r="EN9" s="50"/>
+      <c r="EO9" s="50"/>
+      <c r="EP9" s="50"/>
+      <c r="EQ9" s="50"/>
+      <c r="ER9" s="50"/>
+      <c r="ES9" s="50"/>
+      <c r="ET9" s="50"/>
+      <c r="EU9" s="50"/>
+      <c r="EV9" s="50"/>
+      <c r="EW9" s="50"/>
+      <c r="EX9" s="50"/>
+      <c r="EY9" s="50"/>
+      <c r="EZ9" s="50"/>
+      <c r="FA9" s="50"/>
+      <c r="FB9" s="50"/>
+      <c r="FC9" s="50"/>
+      <c r="FD9" s="50"/>
+      <c r="FE9" s="50"/>
+      <c r="FF9" s="50"/>
+      <c r="FG9" s="50"/>
+      <c r="FH9" s="50"/>
+      <c r="FI9" s="50"/>
+      <c r="FJ9" s="50"/>
+      <c r="FK9" s="50"/>
+      <c r="FL9" s="50"/>
+      <c r="FM9" s="50"/>
+      <c r="FN9" s="50"/>
+      <c r="FO9" s="50"/>
+      <c r="FP9" s="50"/>
+      <c r="FQ9" s="50"/>
+      <c r="FR9" s="50"/>
+      <c r="FS9" s="50"/>
+      <c r="FT9" s="50"/>
+      <c r="FU9" s="50"/>
+      <c r="FV9" s="50"/>
+      <c r="FW9" s="50"/>
+      <c r="FX9" s="50"/>
+      <c r="FY9" s="50"/>
+      <c r="FZ9" s="50"/>
+      <c r="GA9" s="50"/>
+      <c r="GB9" s="50"/>
+      <c r="GC9" s="50"/>
+      <c r="GD9" s="50"/>
+      <c r="GE9" s="50"/>
+      <c r="GF9" s="50"/>
+      <c r="GG9" s="50"/>
+      <c r="GH9" s="50"/>
+      <c r="GI9" s="50"/>
+      <c r="GJ9" s="50"/>
+      <c r="GK9" s="50"/>
+      <c r="GL9" s="50"/>
+      <c r="GM9" s="50"/>
+      <c r="GN9" s="50"/>
+      <c r="GO9" s="50"/>
+      <c r="GP9" s="50"/>
+      <c r="GQ9" s="50"/>
+      <c r="GR9" s="50"/>
+      <c r="GS9" s="50"/>
+      <c r="GT9" s="50"/>
+      <c r="GU9" s="50"/>
+      <c r="GV9" s="50"/>
+      <c r="GW9" s="50"/>
+      <c r="GX9" s="50"/>
+      <c r="GY9" s="50"/>
+      <c r="GZ9" s="50"/>
+      <c r="HA9" s="50"/>
+      <c r="HB9" s="50"/>
+      <c r="HC9" s="50"/>
+      <c r="HD9" s="50"/>
+      <c r="HE9" s="50"/>
+      <c r="HF9" s="50"/>
+      <c r="HG9" s="50"/>
+      <c r="HH9" s="50"/>
+      <c r="HI9" s="50"/>
+      <c r="HJ9" s="50"/>
+      <c r="HK9" s="50"/>
+      <c r="HL9" s="50"/>
+      <c r="HM9" s="50"/>
+      <c r="HN9" s="50"/>
+      <c r="HO9" s="50"/>
+      <c r="HP9" s="50"/>
+      <c r="HQ9" s="50"/>
+      <c r="HR9" s="50"/>
+      <c r="HS9" s="50"/>
+      <c r="HT9" s="50"/>
+      <c r="HU9" s="50"/>
+      <c r="HV9" s="50"/>
+      <c r="HW9" s="50"/>
+      <c r="HX9" s="50"/>
+      <c r="HY9" s="50"/>
+      <c r="HZ9" s="50"/>
+      <c r="IA9" s="50"/>
+      <c r="IB9" s="50"/>
+      <c r="IC9" s="50"/>
+      <c r="ID9" s="50"/>
+      <c r="IE9" s="50"/>
+      <c r="IF9" s="50"/>
+      <c r="IG9" s="50"/>
+      <c r="IH9" s="50"/>
+      <c r="II9" s="50"/>
+      <c r="IJ9" s="50"/>
+      <c r="IK9" s="50"/>
+      <c r="IL9" s="50"/>
+      <c r="IM9" s="50"/>
+      <c r="IN9" s="50"/>
+      <c r="IO9" s="50"/>
+      <c r="IP9" s="50"/>
+      <c r="IQ9" s="50"/>
+      <c r="IR9" s="50"/>
+      <c r="IS9" s="50"/>
+      <c r="IT9" s="50"/>
+      <c r="IU9" s="50"/>
+      <c r="IV9" s="50"/>
+    </row>
+    <row r="10" spans="1:256" ht="14">
       <c r="A10" s="40"/>
       <c r="B10" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>265</v>
       </c>
       <c r="D10" s="31">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J10" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`MARRIAGE` varchar(2) COMMENT '0:未婚；1:已婚',</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="14">
+        <v>`ADDRESS` varchar(50) COMMENT '详细地址',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:256" ht="14">
       <c r="A11" s="40"/>
       <c r="B11" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>265</v>
       </c>
       <c r="D11" s="31">
-        <v>1</v>
-      </c>
-      <c r="E11" s="31">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J11" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`CHILD` varchar(1) COMMENT '0:无子女；1:一个子女；2两个子女',</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="14">
+        <v>`MARRIAGE` varchar(2) COMMENT '0:未婚；1:已婚',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:256" ht="14">
       <c r="A12" s="40"/>
       <c r="B12" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>265</v>
       </c>
       <c r="D12" s="31">
-        <v>50</v>
-      </c>
-      <c r="E12" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="31">
+        <v>0</v>
+      </c>
       <c r="F12" s="24"/>
       <c r="G12" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J12" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`INDUSTRY` varchar(50) COMMENT '行业',</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="14">
+        <v>`CHILD` varchar(1) COMMENT '0:无子女；1:一个子女；2两个子女',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:256" ht="14">
       <c r="A13" s="40"/>
       <c r="B13" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D13" s="31">
-        <v>10</v>
-      </c>
-      <c r="E13" s="31">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J13" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`YEARLY_INCOME` numeric(10) COMMENT '年收入',</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="14">
+        <v>`INDUSTRY` varchar(50) COMMENT '行业',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:256" ht="14">
       <c r="A14" s="40"/>
       <c r="B14" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>270</v>
@@ -6727,40 +6983,40 @@
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J14" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`YEARLY_EXPENSE` numeric(10) COMMENT '年支出',</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="14">
+        <v>`YEARLY_INCOME` numeric(10) COMMENT '年收入',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:256" ht="14">
       <c r="A15" s="40"/>
       <c r="B15" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D15" s="31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E15" s="31">
         <v>0</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J15" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`HOUSE` varchar(1) COMMENT '0:无房产；1:一套房产',</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="14">
+        <v>`YEARLY_EXPENSE` numeric(10) COMMENT '年支出',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:256" ht="14">
       <c r="A16" s="40"/>
       <c r="B16" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>265</v>
@@ -6773,17 +7029,17 @@
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J16" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`CAR` varchar(1) COMMENT '0:无车子；1:一辆车子',</v>
+        <v>`HOUSE` varchar(1) COMMENT '0:无房产；1:一套房产',</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14">
       <c r="A17" s="40"/>
       <c r="B17" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>265</v>
@@ -6796,17 +7052,17 @@
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J17" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`HEALTH_CHECK` varchar(1) COMMENT '0:很少体检；1:每年体检；2:半年体检',</v>
+        <v>`CAR` varchar(1) COMMENT '0:无车子；1:一辆车子',</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14">
       <c r="A18" s="40"/>
       <c r="B18" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>265</v>
@@ -6819,17 +7075,17 @@
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J18" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`SMOKE` varchar(1) COMMENT '0:不抽烟；1:很少抽烟；2:经常抽烟',</v>
+        <v>`HEALTH_CHECK` varchar(1) COMMENT '0:很少体检；1:每年体检；2:半年体检',</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14">
       <c r="A19" s="40"/>
       <c r="B19" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>265</v>
@@ -6842,44 +7098,43 @@
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>`SMOKE` varchar(1) COMMENT '0:不抽烟；1:很少抽烟；2:经常抽烟',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14">
+      <c r="A20" s="40"/>
+      <c r="B20" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="31">
+        <v>1</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="50" t="str">
+      <c r="J20" s="50" t="str">
         <f t="shared" si="0"/>
         <v>`ALCOHOL` varchar(1) COMMENT '0:不喝酒；1:很少喝酒；2:经常喝酒',</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14">
-      <c r="A20" s="29">
+    <row r="21" spans="1:10" ht="14">
+      <c r="A21" s="29">
         <f>A6+1</f>
         <v>4</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B21" s="30" t="s">
         <v>102</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="31">
-        <v>20</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v>`PHONE_NO` varchar(20) COMMENT '通讯录读取或手工输入的手机号码',</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14">
-      <c r="A21" s="29">
-        <f t="shared" ref="A21:A38" si="1">A20+1</f>
-        <v>5</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>104</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>265</v>
@@ -6890,20 +7145,20 @@
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J21" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`PHONE_NM` varchar(20) COMMENT '通讯录联系人名称（手工添加记录时，用客户名称保存）',</v>
+        <v>`PHONE_NO` varchar(20) COMMENT '通讯录读取或手工输入的手机号码',</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14">
       <c r="A22" s="29">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" ref="A22:A39" si="2">A21+1</f>
+        <v>5</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>265</v>
@@ -6914,20 +7169,20 @@
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J22" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`PHONE_COMPANY` varchar(20) COMMENT '通讯录上的公司名称',</v>
+        <v>`PHONE_NM` varchar(20) COMMENT '通讯录联系人名称（手工添加记录时，用客户名称保存）',</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14">
       <c r="A23" s="29">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>265</v>
@@ -6938,44 +7193,44 @@
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J23" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`PHONE_ROLE` varchar(20) COMMENT '通讯录上的职位信息',</v>
+        <v>`PHONE_COMPANY` varchar(20) COMMENT '通讯录上的公司名称',</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14">
       <c r="A24" s="29">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>265</v>
       </c>
       <c r="D24" s="31">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J24" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`PHONE_EMAIL` varchar(50) COMMENT '通讯录上的邮箱地址',</v>
+        <v>`PHONE_ROLE` varchar(20) COMMENT '通讯录上的职位信息',</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14">
       <c r="A25" s="29">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>265</v>
@@ -6986,44 +7241,44 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J25" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`PHONE_ADDRESS` varchar(50) COMMENT '通讯录上的地址（一般为单位）',</v>
+        <v>`PHONE_EMAIL` varchar(50) COMMENT '通讯录上的邮箱地址',</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14">
       <c r="A26" s="29">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>265</v>
       </c>
       <c r="D26" s="31">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J26" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`PHONE_GROUP` varchar(20) COMMENT '通讯录上的分组名称（家庭、好友等）',</v>
+        <v>`PHONE_ADDRESS` varchar(50) COMMENT '通讯录上的地址（一般为单位）',</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14">
       <c r="A27" s="29">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>265</v>
@@ -7034,20 +7289,20 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J27" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`WECHAT_NO` varchar(20) COMMENT '微信读取或手工输入的微信ID',</v>
+        <v>`PHONE_GROUP` varchar(20) COMMENT '通讯录上的分组名称（家庭、好友等）',</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14">
       <c r="A28" s="29">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>265</v>
@@ -7058,44 +7313,44 @@
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J28" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`WECHAT_NM` varchar(20) COMMENT '微信昵称',</v>
+        <v>`WECHAT_NO` varchar(20) COMMENT '微信读取或手工输入的微信ID',</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14">
       <c r="A29" s="29">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>265</v>
       </c>
       <c r="D29" s="31">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J29" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`WECHAT_MEMO` varchar(50) COMMENT '微信备注名称',</v>
+        <v>`WECHAT_NM` varchar(20) COMMENT '微信昵称',</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14">
       <c r="A30" s="29">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>265</v>
@@ -7106,44 +7361,44 @@
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J30" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`WECHAT_IMG` varchar(50) COMMENT '客户头像文件地址（微信导入时，默认用微信头像）',</v>
+        <v>`WECHAT_MEMO` varchar(50) COMMENT '微信备注名称',</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14">
       <c r="A31" s="29">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>265</v>
       </c>
       <c r="D31" s="31">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J31" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`WECHAT_COUNTRY` varchar(20) COMMENT '微信地区（国家）',</v>
+        <v>`WECHAT_IMG` varchar(50) COMMENT '客户头像文件地址（微信导入时，默认用微信头像）',</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14">
       <c r="A32" s="29">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>265</v>
@@ -7154,92 +7409,92 @@
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J32" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`WECHAT_CITY` varchar(20) COMMENT '微信地区（城市）',</v>
+        <v>`WECHAT_COUNTRY` varchar(20) COMMENT '微信地区（国家）',</v>
       </c>
     </row>
     <row r="33" spans="1:256" ht="14">
       <c r="A33" s="29">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>265</v>
       </c>
       <c r="D33" s="31">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J33" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`WECHAT_SIGNATURE` varchar(100) COMMENT '微信签名',</v>
+        <v>`WECHAT_CITY` varchar(20) COMMENT '微信地区（城市）',</v>
       </c>
     </row>
     <row r="34" spans="1:256" ht="14">
       <c r="A34" s="29">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>265</v>
       </c>
       <c r="D34" s="31">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J34" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`WECHAT_PHONE` varchar(20) COMMENT '微信中记录的手机号',</v>
+        <v>`WECHAT_SIGNATURE` varchar(100) COMMENT '微信签名',</v>
       </c>
     </row>
     <row r="35" spans="1:256" ht="14">
       <c r="A35" s="29">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>265</v>
       </c>
       <c r="D35" s="31">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J35" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`WECHAT_LINKEDIN` varchar(100) COMMENT '微信中记录的LINKEDIN链接',</v>
+        <v>`WECHAT_PHONE` varchar(20) COMMENT '微信中记录的手机号',</v>
       </c>
     </row>
     <row r="36" spans="1:256" ht="14">
       <c r="A36" s="29">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>265</v>
@@ -7250,20 +7505,20 @@
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J36" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`WECHAT_GROUP` varchar(100) COMMENT '微信中对客户的标签设定（家庭、好友等）',</v>
+        <v>`WECHAT_LINKEDIN` varchar(100) COMMENT '微信中记录的LINKEDIN链接',</v>
       </c>
     </row>
     <row r="37" spans="1:256" ht="14">
       <c r="A37" s="29">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>265</v>
@@ -7274,20 +7529,20 @@
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J37" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`WECHAT_SAMEGROUP` varchar(100) COMMENT '与客户的共同微信群聊名称',</v>
+        <v>`WECHAT_GROUP` varchar(100) COMMENT '微信中对客户的标签设定（家庭、好友等）',</v>
       </c>
     </row>
     <row r="38" spans="1:256" ht="14">
       <c r="A38" s="29">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>265</v>
@@ -7298,306 +7553,59 @@
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J38" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`WEIBO_ID` varchar(100) COMMENT '微博ID（通过手机号搜索）',</v>
+        <v>`WECHAT_SAMEGROUP` varchar(100) COMMENT '与客户的共同微信群聊名称',</v>
       </c>
     </row>
     <row r="39" spans="1:256" ht="14">
       <c r="A39" s="29">
-        <f>A36+1</f>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
+        <v>265</v>
+      </c>
+      <c r="D39" s="31">
+        <v>100</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
+        <v>139</v>
+      </c>
       <c r="J39" s="50" t="str">
-        <f t="shared" ref="J39:J40" si="2">CONCATENATE("`",B39,"` ",LOWER(C39),"(",D39,")"," COMMENT ","'",G39,"',")</f>
-        <v>`LAST_TOUCH_DATE` date() COMMENT '最后交互时间',</v>
-      </c>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
-      <c r="AH39" s="50"/>
-      <c r="AI39" s="50"/>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
-      <c r="AP39" s="50"/>
-      <c r="AQ39" s="50"/>
-      <c r="AR39" s="50"/>
-      <c r="AS39" s="50"/>
-      <c r="AT39" s="50"/>
-      <c r="AU39" s="50"/>
-      <c r="AV39" s="50"/>
-      <c r="AW39" s="50"/>
-      <c r="AX39" s="50"/>
-      <c r="AY39" s="50"/>
-      <c r="AZ39" s="50"/>
-      <c r="BA39" s="50"/>
-      <c r="BB39" s="50"/>
-      <c r="BC39" s="50"/>
-      <c r="BD39" s="50"/>
-      <c r="BE39" s="50"/>
-      <c r="BF39" s="50"/>
-      <c r="BG39" s="50"/>
-      <c r="BH39" s="50"/>
-      <c r="BI39" s="50"/>
-      <c r="BJ39" s="50"/>
-      <c r="BK39" s="50"/>
-      <c r="BL39" s="50"/>
-      <c r="BM39" s="50"/>
-      <c r="BN39" s="50"/>
-      <c r="BO39" s="50"/>
-      <c r="BP39" s="50"/>
-      <c r="BQ39" s="50"/>
-      <c r="BR39" s="50"/>
-      <c r="BS39" s="50"/>
-      <c r="BT39" s="50"/>
-      <c r="BU39" s="50"/>
-      <c r="BV39" s="50"/>
-      <c r="BW39" s="50"/>
-      <c r="BX39" s="50"/>
-      <c r="BY39" s="50"/>
-      <c r="BZ39" s="50"/>
-      <c r="CA39" s="50"/>
-      <c r="CB39" s="50"/>
-      <c r="CC39" s="50"/>
-      <c r="CD39" s="50"/>
-      <c r="CE39" s="50"/>
-      <c r="CF39" s="50"/>
-      <c r="CG39" s="50"/>
-      <c r="CH39" s="50"/>
-      <c r="CI39" s="50"/>
-      <c r="CJ39" s="50"/>
-      <c r="CK39" s="50"/>
-      <c r="CL39" s="50"/>
-      <c r="CM39" s="50"/>
-      <c r="CN39" s="50"/>
-      <c r="CO39" s="50"/>
-      <c r="CP39" s="50"/>
-      <c r="CQ39" s="50"/>
-      <c r="CR39" s="50"/>
-      <c r="CS39" s="50"/>
-      <c r="CT39" s="50"/>
-      <c r="CU39" s="50"/>
-      <c r="CV39" s="50"/>
-      <c r="CW39" s="50"/>
-      <c r="CX39" s="50"/>
-      <c r="CY39" s="50"/>
-      <c r="CZ39" s="50"/>
-      <c r="DA39" s="50"/>
-      <c r="DB39" s="50"/>
-      <c r="DC39" s="50"/>
-      <c r="DD39" s="50"/>
-      <c r="DE39" s="50"/>
-      <c r="DF39" s="50"/>
-      <c r="DG39" s="50"/>
-      <c r="DH39" s="50"/>
-      <c r="DI39" s="50"/>
-      <c r="DJ39" s="50"/>
-      <c r="DK39" s="50"/>
-      <c r="DL39" s="50"/>
-      <c r="DM39" s="50"/>
-      <c r="DN39" s="50"/>
-      <c r="DO39" s="50"/>
-      <c r="DP39" s="50"/>
-      <c r="DQ39" s="50"/>
-      <c r="DR39" s="50"/>
-      <c r="DS39" s="50"/>
-      <c r="DT39" s="50"/>
-      <c r="DU39" s="50"/>
-      <c r="DV39" s="50"/>
-      <c r="DW39" s="50"/>
-      <c r="DX39" s="50"/>
-      <c r="DY39" s="50"/>
-      <c r="DZ39" s="50"/>
-      <c r="EA39" s="50"/>
-      <c r="EB39" s="50"/>
-      <c r="EC39" s="50"/>
-      <c r="ED39" s="50"/>
-      <c r="EE39" s="50"/>
-      <c r="EF39" s="50"/>
-      <c r="EG39" s="50"/>
-      <c r="EH39" s="50"/>
-      <c r="EI39" s="50"/>
-      <c r="EJ39" s="50"/>
-      <c r="EK39" s="50"/>
-      <c r="EL39" s="50"/>
-      <c r="EM39" s="50"/>
-      <c r="EN39" s="50"/>
-      <c r="EO39" s="50"/>
-      <c r="EP39" s="50"/>
-      <c r="EQ39" s="50"/>
-      <c r="ER39" s="50"/>
-      <c r="ES39" s="50"/>
-      <c r="ET39" s="50"/>
-      <c r="EU39" s="50"/>
-      <c r="EV39" s="50"/>
-      <c r="EW39" s="50"/>
-      <c r="EX39" s="50"/>
-      <c r="EY39" s="50"/>
-      <c r="EZ39" s="50"/>
-      <c r="FA39" s="50"/>
-      <c r="FB39" s="50"/>
-      <c r="FC39" s="50"/>
-      <c r="FD39" s="50"/>
-      <c r="FE39" s="50"/>
-      <c r="FF39" s="50"/>
-      <c r="FG39" s="50"/>
-      <c r="FH39" s="50"/>
-      <c r="FI39" s="50"/>
-      <c r="FJ39" s="50"/>
-      <c r="FK39" s="50"/>
-      <c r="FL39" s="50"/>
-      <c r="FM39" s="50"/>
-      <c r="FN39" s="50"/>
-      <c r="FO39" s="50"/>
-      <c r="FP39" s="50"/>
-      <c r="FQ39" s="50"/>
-      <c r="FR39" s="50"/>
-      <c r="FS39" s="50"/>
-      <c r="FT39" s="50"/>
-      <c r="FU39" s="50"/>
-      <c r="FV39" s="50"/>
-      <c r="FW39" s="50"/>
-      <c r="FX39" s="50"/>
-      <c r="FY39" s="50"/>
-      <c r="FZ39" s="50"/>
-      <c r="GA39" s="50"/>
-      <c r="GB39" s="50"/>
-      <c r="GC39" s="50"/>
-      <c r="GD39" s="50"/>
-      <c r="GE39" s="50"/>
-      <c r="GF39" s="50"/>
-      <c r="GG39" s="50"/>
-      <c r="GH39" s="50"/>
-      <c r="GI39" s="50"/>
-      <c r="GJ39" s="50"/>
-      <c r="GK39" s="50"/>
-      <c r="GL39" s="50"/>
-      <c r="GM39" s="50"/>
-      <c r="GN39" s="50"/>
-      <c r="GO39" s="50"/>
-      <c r="GP39" s="50"/>
-      <c r="GQ39" s="50"/>
-      <c r="GR39" s="50"/>
-      <c r="GS39" s="50"/>
-      <c r="GT39" s="50"/>
-      <c r="GU39" s="50"/>
-      <c r="GV39" s="50"/>
-      <c r="GW39" s="50"/>
-      <c r="GX39" s="50"/>
-      <c r="GY39" s="50"/>
-      <c r="GZ39" s="50"/>
-      <c r="HA39" s="50"/>
-      <c r="HB39" s="50"/>
-      <c r="HC39" s="50"/>
-      <c r="HD39" s="50"/>
-      <c r="HE39" s="50"/>
-      <c r="HF39" s="50"/>
-      <c r="HG39" s="50"/>
-      <c r="HH39" s="50"/>
-      <c r="HI39" s="50"/>
-      <c r="HJ39" s="50"/>
-      <c r="HK39" s="50"/>
-      <c r="HL39" s="50"/>
-      <c r="HM39" s="50"/>
-      <c r="HN39" s="50"/>
-      <c r="HO39" s="50"/>
-      <c r="HP39" s="50"/>
-      <c r="HQ39" s="50"/>
-      <c r="HR39" s="50"/>
-      <c r="HS39" s="50"/>
-      <c r="HT39" s="50"/>
-      <c r="HU39" s="50"/>
-      <c r="HV39" s="50"/>
-      <c r="HW39" s="50"/>
-      <c r="HX39" s="50"/>
-      <c r="HY39" s="50"/>
-      <c r="HZ39" s="50"/>
-      <c r="IA39" s="50"/>
-      <c r="IB39" s="50"/>
-      <c r="IC39" s="50"/>
-      <c r="ID39" s="50"/>
-      <c r="IE39" s="50"/>
-      <c r="IF39" s="50"/>
-      <c r="IG39" s="50"/>
-      <c r="IH39" s="50"/>
-      <c r="II39" s="50"/>
-      <c r="IJ39" s="50"/>
-      <c r="IK39" s="50"/>
-      <c r="IL39" s="50"/>
-      <c r="IM39" s="50"/>
-      <c r="IN39" s="50"/>
-      <c r="IO39" s="50"/>
-      <c r="IP39" s="50"/>
-      <c r="IQ39" s="50"/>
-      <c r="IR39" s="50"/>
-      <c r="IS39" s="50"/>
-      <c r="IT39" s="50"/>
-      <c r="IU39" s="50"/>
-      <c r="IV39" s="50"/>
+        <f t="shared" si="0"/>
+        <v>`WEIBO_ID` varchar(100) COMMENT '微博ID（通过手机号搜索）',</v>
+      </c>
     </row>
     <row r="40" spans="1:256" ht="14">
       <c r="A40" s="29">
-        <f>A36+1</f>
+        <f>A37+1</f>
         <v>21</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="D40" s="31">
-        <v>2</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D40" s="31"/>
       <c r="E40" s="66"/>
       <c r="F40" s="66"/>
       <c r="G40" s="32" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H40" s="50"/>
       <c r="I40" s="50"/>
       <c r="J40" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v>`LAST_TOUCH_TYPE` varchar(2) COMMENT '0:电话；1:微信；2:语音；3:微博；4:其他',</v>
+        <f t="shared" ref="J40:J41" si="3">CONCATENATE("`",B40,"` ",LOWER(C40),"(",D40,")"," COMMENT ","'",G40,"',")</f>
+        <v>`LAST_TOUCH_DATE` date() COMMENT '最后交互时间',</v>
       </c>
       <c r="L40" s="50"/>
       <c r="M40" s="50"/>
@@ -7848,32 +7856,281 @@
     <row r="41" spans="1:256" ht="14">
       <c r="A41" s="29">
         <f>A37+1</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>140</v>
+        <v>286</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+        <v>265</v>
+      </c>
+      <c r="D41" s="31">
+        <v>2</v>
+      </c>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
       <c r="G41" s="32" t="s">
-        <v>141</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
       <c r="J41" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v>`CREATE_DATE` date() COMMENT '创建日期',</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>`LAST_TOUCH_TYPE` varchar(2) COMMENT '0:电话；1:微信；2:语音；3:微博；4:其他',</v>
+      </c>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
+      <c r="AH41" s="50"/>
+      <c r="AI41" s="50"/>
+      <c r="AJ41" s="50"/>
+      <c r="AK41" s="50"/>
+      <c r="AL41" s="50"/>
+      <c r="AM41" s="50"/>
+      <c r="AN41" s="50"/>
+      <c r="AO41" s="50"/>
+      <c r="AP41" s="50"/>
+      <c r="AQ41" s="50"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
+      <c r="AT41" s="50"/>
+      <c r="AU41" s="50"/>
+      <c r="AV41" s="50"/>
+      <c r="AW41" s="50"/>
+      <c r="AX41" s="50"/>
+      <c r="AY41" s="50"/>
+      <c r="AZ41" s="50"/>
+      <c r="BA41" s="50"/>
+      <c r="BB41" s="50"/>
+      <c r="BC41" s="50"/>
+      <c r="BD41" s="50"/>
+      <c r="BE41" s="50"/>
+      <c r="BF41" s="50"/>
+      <c r="BG41" s="50"/>
+      <c r="BH41" s="50"/>
+      <c r="BI41" s="50"/>
+      <c r="BJ41" s="50"/>
+      <c r="BK41" s="50"/>
+      <c r="BL41" s="50"/>
+      <c r="BM41" s="50"/>
+      <c r="BN41" s="50"/>
+      <c r="BO41" s="50"/>
+      <c r="BP41" s="50"/>
+      <c r="BQ41" s="50"/>
+      <c r="BR41" s="50"/>
+      <c r="BS41" s="50"/>
+      <c r="BT41" s="50"/>
+      <c r="BU41" s="50"/>
+      <c r="BV41" s="50"/>
+      <c r="BW41" s="50"/>
+      <c r="BX41" s="50"/>
+      <c r="BY41" s="50"/>
+      <c r="BZ41" s="50"/>
+      <c r="CA41" s="50"/>
+      <c r="CB41" s="50"/>
+      <c r="CC41" s="50"/>
+      <c r="CD41" s="50"/>
+      <c r="CE41" s="50"/>
+      <c r="CF41" s="50"/>
+      <c r="CG41" s="50"/>
+      <c r="CH41" s="50"/>
+      <c r="CI41" s="50"/>
+      <c r="CJ41" s="50"/>
+      <c r="CK41" s="50"/>
+      <c r="CL41" s="50"/>
+      <c r="CM41" s="50"/>
+      <c r="CN41" s="50"/>
+      <c r="CO41" s="50"/>
+      <c r="CP41" s="50"/>
+      <c r="CQ41" s="50"/>
+      <c r="CR41" s="50"/>
+      <c r="CS41" s="50"/>
+      <c r="CT41" s="50"/>
+      <c r="CU41" s="50"/>
+      <c r="CV41" s="50"/>
+      <c r="CW41" s="50"/>
+      <c r="CX41" s="50"/>
+      <c r="CY41" s="50"/>
+      <c r="CZ41" s="50"/>
+      <c r="DA41" s="50"/>
+      <c r="DB41" s="50"/>
+      <c r="DC41" s="50"/>
+      <c r="DD41" s="50"/>
+      <c r="DE41" s="50"/>
+      <c r="DF41" s="50"/>
+      <c r="DG41" s="50"/>
+      <c r="DH41" s="50"/>
+      <c r="DI41" s="50"/>
+      <c r="DJ41" s="50"/>
+      <c r="DK41" s="50"/>
+      <c r="DL41" s="50"/>
+      <c r="DM41" s="50"/>
+      <c r="DN41" s="50"/>
+      <c r="DO41" s="50"/>
+      <c r="DP41" s="50"/>
+      <c r="DQ41" s="50"/>
+      <c r="DR41" s="50"/>
+      <c r="DS41" s="50"/>
+      <c r="DT41" s="50"/>
+      <c r="DU41" s="50"/>
+      <c r="DV41" s="50"/>
+      <c r="DW41" s="50"/>
+      <c r="DX41" s="50"/>
+      <c r="DY41" s="50"/>
+      <c r="DZ41" s="50"/>
+      <c r="EA41" s="50"/>
+      <c r="EB41" s="50"/>
+      <c r="EC41" s="50"/>
+      <c r="ED41" s="50"/>
+      <c r="EE41" s="50"/>
+      <c r="EF41" s="50"/>
+      <c r="EG41" s="50"/>
+      <c r="EH41" s="50"/>
+      <c r="EI41" s="50"/>
+      <c r="EJ41" s="50"/>
+      <c r="EK41" s="50"/>
+      <c r="EL41" s="50"/>
+      <c r="EM41" s="50"/>
+      <c r="EN41" s="50"/>
+      <c r="EO41" s="50"/>
+      <c r="EP41" s="50"/>
+      <c r="EQ41" s="50"/>
+      <c r="ER41" s="50"/>
+      <c r="ES41" s="50"/>
+      <c r="ET41" s="50"/>
+      <c r="EU41" s="50"/>
+      <c r="EV41" s="50"/>
+      <c r="EW41" s="50"/>
+      <c r="EX41" s="50"/>
+      <c r="EY41" s="50"/>
+      <c r="EZ41" s="50"/>
+      <c r="FA41" s="50"/>
+      <c r="FB41" s="50"/>
+      <c r="FC41" s="50"/>
+      <c r="FD41" s="50"/>
+      <c r="FE41" s="50"/>
+      <c r="FF41" s="50"/>
+      <c r="FG41" s="50"/>
+      <c r="FH41" s="50"/>
+      <c r="FI41" s="50"/>
+      <c r="FJ41" s="50"/>
+      <c r="FK41" s="50"/>
+      <c r="FL41" s="50"/>
+      <c r="FM41" s="50"/>
+      <c r="FN41" s="50"/>
+      <c r="FO41" s="50"/>
+      <c r="FP41" s="50"/>
+      <c r="FQ41" s="50"/>
+      <c r="FR41" s="50"/>
+      <c r="FS41" s="50"/>
+      <c r="FT41" s="50"/>
+      <c r="FU41" s="50"/>
+      <c r="FV41" s="50"/>
+      <c r="FW41" s="50"/>
+      <c r="FX41" s="50"/>
+      <c r="FY41" s="50"/>
+      <c r="FZ41" s="50"/>
+      <c r="GA41" s="50"/>
+      <c r="GB41" s="50"/>
+      <c r="GC41" s="50"/>
+      <c r="GD41" s="50"/>
+      <c r="GE41" s="50"/>
+      <c r="GF41" s="50"/>
+      <c r="GG41" s="50"/>
+      <c r="GH41" s="50"/>
+      <c r="GI41" s="50"/>
+      <c r="GJ41" s="50"/>
+      <c r="GK41" s="50"/>
+      <c r="GL41" s="50"/>
+      <c r="GM41" s="50"/>
+      <c r="GN41" s="50"/>
+      <c r="GO41" s="50"/>
+      <c r="GP41" s="50"/>
+      <c r="GQ41" s="50"/>
+      <c r="GR41" s="50"/>
+      <c r="GS41" s="50"/>
+      <c r="GT41" s="50"/>
+      <c r="GU41" s="50"/>
+      <c r="GV41" s="50"/>
+      <c r="GW41" s="50"/>
+      <c r="GX41" s="50"/>
+      <c r="GY41" s="50"/>
+      <c r="GZ41" s="50"/>
+      <c r="HA41" s="50"/>
+      <c r="HB41" s="50"/>
+      <c r="HC41" s="50"/>
+      <c r="HD41" s="50"/>
+      <c r="HE41" s="50"/>
+      <c r="HF41" s="50"/>
+      <c r="HG41" s="50"/>
+      <c r="HH41" s="50"/>
+      <c r="HI41" s="50"/>
+      <c r="HJ41" s="50"/>
+      <c r="HK41" s="50"/>
+      <c r="HL41" s="50"/>
+      <c r="HM41" s="50"/>
+      <c r="HN41" s="50"/>
+      <c r="HO41" s="50"/>
+      <c r="HP41" s="50"/>
+      <c r="HQ41" s="50"/>
+      <c r="HR41" s="50"/>
+      <c r="HS41" s="50"/>
+      <c r="HT41" s="50"/>
+      <c r="HU41" s="50"/>
+      <c r="HV41" s="50"/>
+      <c r="HW41" s="50"/>
+      <c r="HX41" s="50"/>
+      <c r="HY41" s="50"/>
+      <c r="HZ41" s="50"/>
+      <c r="IA41" s="50"/>
+      <c r="IB41" s="50"/>
+      <c r="IC41" s="50"/>
+      <c r="ID41" s="50"/>
+      <c r="IE41" s="50"/>
+      <c r="IF41" s="50"/>
+      <c r="IG41" s="50"/>
+      <c r="IH41" s="50"/>
+      <c r="II41" s="50"/>
+      <c r="IJ41" s="50"/>
+      <c r="IK41" s="50"/>
+      <c r="IL41" s="50"/>
+      <c r="IM41" s="50"/>
+      <c r="IN41" s="50"/>
+      <c r="IO41" s="50"/>
+      <c r="IP41" s="50"/>
+      <c r="IQ41" s="50"/>
+      <c r="IR41" s="50"/>
+      <c r="IS41" s="50"/>
+      <c r="IT41" s="50"/>
+      <c r="IU41" s="50"/>
+      <c r="IV41" s="50"/>
     </row>
     <row r="42" spans="1:256" ht="14">
       <c r="A42" s="29">
-        <f>A41+1</f>
-        <v>23</v>
+        <f>A38+1</f>
+        <v>22</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>78</v>
@@ -7882,65 +8139,87 @@
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J42" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>`UPDATE_DATE` date() COMMENT '更新日期',</v>
+        <v>`CREATE_DATE` date() COMMENT '创建日期',</v>
       </c>
     </row>
     <row r="43" spans="1:256" ht="14">
       <c r="A43" s="29">
         <f>A42+1</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="D43" s="31">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D43" s="31"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>`UPDATE_DATE` date() COMMENT '更新日期',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:256" ht="14">
+      <c r="A44" s="29">
+        <f>A43+1</f>
+        <v>24</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" s="31">
+        <v>1</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="J43" s="50" t="str">
+      <c r="J44" s="50" t="str">
         <f t="shared" si="0"/>
         <v>`STATUS` varchar(1) COMMENT '0:无效；1:有效',</v>
       </c>
     </row>
-    <row r="44" spans="1:256" ht="13.5" customHeight="1">
-      <c r="A44" s="33"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="35"/>
-    </row>
-    <row r="45" spans="1:256" ht="16.5" customHeight="1">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-    </row>
-    <row r="46" spans="1:256" ht="14.25" customHeight="1">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="38" t="s">
+    <row r="45" spans="1:256" ht="13.5" customHeight="1">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="1:256" ht="16.5" customHeight="1">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" spans="1:256" ht="14.25" customHeight="1">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7977,30 +8256,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="16.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:256" ht="16" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:256" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -12050,30 +12329,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -12283,30 +12562,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -12533,30 +12812,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">
@@ -13044,30 +13323,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="26" t="s">

--- a/document/linkpower_table_list_20190513.xlsx
+++ b/document/linkpower_table_list_20190513.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Documents/HBuilderProjects/LBAI/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EE6ABE-D9AC-C54C-BE14-347E7FCFB124}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00ADB1D-7BF8-BD44-9044-5FD3E444E30E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,11 +1014,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>CITY</t>
+    <t>城市</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>城市</t>
+    <t>ZIPCODE</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1868,67 +1868,37 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1961,26 +1931,56 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3292,16 +3292,16 @@
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="5"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -3310,20 +3310,20 @@
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73" t="s">
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="74" t="s">
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="75"/>
+      <c r="I6" s="104"/>
       <c r="J6" s="5"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -3332,14 +3332,14 @@
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
       <c r="J7" s="5"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -3348,14 +3348,14 @@
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
       <c r="J8" s="5"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3364,14 +3364,14 @@
     </row>
     <row r="9" spans="1:14" ht="40.5" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="86"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="96"/>
       <c r="J9" s="5"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -3412,104 +3412,104 @@
     </row>
     <row r="12" spans="1:14" ht="14.25" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="45.75" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94" t="s">
+      <c r="C13" s="83"/>
+      <c r="D13" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94" t="s">
+      <c r="E13" s="83"/>
+      <c r="F13" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94" t="s">
+      <c r="G13" s="83"/>
+      <c r="H13" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94" t="s">
+      <c r="I13" s="83"/>
+      <c r="J13" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94" t="s">
+      <c r="K13" s="83"/>
+      <c r="L13" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="93"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="57.75" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="96" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98" t="s">
+      <c r="E14" s="87"/>
+      <c r="F14" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="88"/>
-      <c r="H14" s="87">
+      <c r="G14" s="71"/>
+      <c r="H14" s="78">
         <v>43596</v>
       </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="71"/>
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="27" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="88"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="71"/>
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="27" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="100"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="15.5" customHeight="1">
@@ -3626,18 +3626,19 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="B12:M12"/>
     <mergeCell ref="B13:C13"/>
@@ -3651,19 +3652,18 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6431,7 +6431,7 @@
   <dimension ref="A1:IV47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1"/>
@@ -6616,24 +6616,24 @@
     <row r="9" spans="1:256" ht="14">
       <c r="A9" s="40"/>
       <c r="B9" s="30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>265</v>
       </c>
       <c r="D9" s="31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
       <c r="G9" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="50"/>
       <c r="J9" s="50" t="str">
         <f t="shared" ref="J9" si="1">CONCATENATE("`",B9,"` ",LOWER(C9),"(",D9,")"," COMMENT ","'",G9,"',")</f>
-        <v>`CITY` varchar(10) COMMENT '城市',</v>
+        <v>`ZIPCODE` varchar(20) COMMENT '城市',</v>
       </c>
       <c r="L9" s="50"/>
       <c r="M9" s="50"/>
